--- a/meta/program/BlancoValueObjectKtMessage.xlsx
+++ b/meta/program/BlancoValueObjectKtMessage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9997D696-0F44-5A49-A942-33D82014A4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{9B450C8C-CBB2-B849-814E-FD94EDCBF242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="460" windowWidth="19960" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
     <definedName name="EmbeddedId">config!$B$3:$B$4</definedName>
     <definedName name="LEVEL">config!$D$3:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -314,19 +317,21 @@
   <si>
     <t>クラス名[{0}] フィールド[{1}]にデフォルト値が設定されていません。</t>
     <rPh sb="28" eb="30">
-      <t xml:space="preserve">セッテイ </t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t xml:space="preserve">シュウショクシ </t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t xml:space="preserve">シュウショクシ </t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t xml:space="preserve">ドウジニ </t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t xml:space="preserve">シテイ </t>
+      <t xml:space="preserve">セッテイ シュウショクシ シュウショクシ ドウジニ シテイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBVOJI09</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] kotlinではdataクラスは必ずfinal扱いとなります。</t>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">カナラズ </t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">アツカイト </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1242,10 +1247,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1379,7 +1384,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="30">
-        <f t="shared" ref="A17:A26" si="0">A16+1</f>
+        <f t="shared" ref="A17:A22" si="0">A16+1</f>
         <v>2</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -1475,7 +1480,7 @@
     </row>
     <row r="23" spans="1:5" ht="27.75" customHeight="1">
       <c r="A23" s="30">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>8</v>
       </c>
       <c r="B23" s="31" t="s">
@@ -1491,7 +1496,7 @@
     </row>
     <row r="24" spans="1:5" ht="27.75" customHeight="1">
       <c r="A24" s="30">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>9</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -1505,40 +1510,57 @@
       </c>
       <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="30">
+    <row r="25" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A25" s="30">
         <f>A24+1</f>
         <v>10</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B25" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="30"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="30">
+        <f>A25+1</f>
+        <v>11</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A6:B6"/>
@@ -1561,7 +1583,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>EmbeddedId</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>LEVEL</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoValueObjectKtMessage.xlsx
+++ b/meta/program/BlancoValueObjectKtMessage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{9B450C8C-CBB2-B849-814E-FD94EDCBF242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB6BCB-8BC0-994B-961F-352862762D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="19960" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="19960" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="LEVEL">config!$D$3:$D$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -333,6 +332,14 @@
     <rPh sb="33" eb="34">
       <t xml:space="preserve">アツカイト </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBVOJI0A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] kotlinではdata修飾子とsealed修飾子は同時に指定できません。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -709,14 +716,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -733,8 +740,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,11 +816,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -824,7 +830,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,7 +1253,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
@@ -1290,30 +1296,30 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="6" t="s">
         <v>44</v>
       </c>
@@ -1321,245 +1327,271 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>1</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="29" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="30">
+      <c r="A17" s="29">
         <f t="shared" ref="A17:A22" si="0">A16+1</f>
         <v>2</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A20" s="30">
+      <c r="A20" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A21" s="30">
+      <c r="A21" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A22" s="30">
+      <c r="A22" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A23" s="30">
+      <c r="A23" s="29">
         <f>A22+1</f>
         <v>8</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A24" s="30">
+      <c r="A24" s="29">
         <f>A23+1</f>
         <v>9</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A25" s="30">
+      <c r="A25" s="29">
         <f>A24+1</f>
         <v>10</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="39"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="30">
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A26" s="29">
         <f>A25+1</f>
         <v>11</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="29"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="29">
+        <f>A25+1</f>
+        <v>11</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
@@ -1576,14 +1608,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>EmbeddedId</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C28" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C30" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>LEVEL</formula1>
     </dataValidation>
   </dataValidations>
@@ -1601,11 +1632,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="17"/>
-    <col min="2" max="2" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="17"/>
-    <col min="4" max="4" width="12.5" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="17"/>
+    <col min="1" max="1" width="8.83203125" style="16"/>
+    <col min="2" max="2" width="11.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="16"/>
+    <col min="4" max="4" width="12.5" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -1614,53 +1645,53 @@
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="18"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="17"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="20"/>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="19"/>
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>22</v>
       </c>
     </row>

--- a/meta/program/BlancoValueObjectKtMessage.xlsx
+++ b/meta/program/BlancoValueObjectKtMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB6BCB-8BC0-994B-961F-352862762D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB310FF-4DCB-D54A-BF44-A92754E81607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="500" windowWidth="19960" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,21 +325,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クラス名[{0}] kotlinではdataクラスは必ずfinal扱いとなります。</t>
-    <rPh sb="26" eb="27">
+    <t>MBVOJI0A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] kotlinではdata修飾子とsealed修飾子は同時に指定できません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] kotlinではdataクラスとsealedクラスは必ずfinal扱いとなります。</t>
+    <rPh sb="36" eb="37">
       <t xml:space="preserve">カナラズ </t>
     </rPh>
-    <rPh sb="33" eb="34">
+    <rPh sb="43" eb="44">
       <t xml:space="preserve">アツカイト </t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MBVOJI0A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クラス名[{0}] kotlinではdata修飾子とsealed修飾子は同時に指定できません。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1528,7 +1528,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E25" s="38"/>
     </row>
@@ -1538,13 +1538,13 @@
         <v>11</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="38"/>
     </row>
@@ -1589,12 +1589,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1603,11 +1598,16 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
